--- a/report/基本設計書/基本設計書_I0005_作成画面.xlsx
+++ b/report/基本設計書/基本設計書_I0005_作成画面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="4"/>
+    <workbookView xWindow="7020" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -370,20 +371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掲示板_本文</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardStory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板_添付ファイル</t>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
@@ -398,13 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキスト_本文</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト_タイトル</t>
     <rPh sb="4" eb="6">
       <t>サイショ</t>
@@ -420,10 +400,6 @@
   </si>
   <si>
     <t>textTitle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>textStory</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -459,54 +435,117 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BoardDBに内容を登録、I0003に移動する。</t>
+    <t>必須チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたかチェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No6~7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンを押下</t>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金哲湖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成画面</t>
+    <rPh sb="0" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I0005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル添付</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ファイルを添付</t>
     <rPh sb="6" eb="8">
       <t>ｲﾄﾞｳ</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>必須チェック</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
+    <t>桁数チェック</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30桁以下なるかチェック</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000桁以下なるかチェック</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掲示板_内容</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力されたかチェック</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
+    <t>テキスト_内容</t>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No6~7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録ボタンを押下</t>
+    <t>BOA_TBLに内容を登録、I0003に移動する。</t>
     <rPh sb="6" eb="8">
-      <t>オウカ</t>
+      <t>ｲﾄﾞｳ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022-04-24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金哲湖</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardContents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textContents</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,7 +626,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,12 +1189,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1310,6 +1349,51 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,7 +1434,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1478,7 @@
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1625,7 @@
         <xdr:cNvPr id="27" name="타원 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1701,7 @@
         <xdr:cNvPr id="35" name="타원 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1834,7 @@
         <xdr:cNvPr id="37" name="타원 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1912,7 @@
         <xdr:cNvPr id="39" name="타원 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1990,7 @@
         <xdr:cNvPr id="40" name="타원 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +2068,7 @@
         <xdr:cNvPr id="42" name="타원 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2146,7 @@
         <xdr:cNvPr id="45" name="타원 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,84 +2208,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>148589</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>210502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>83819</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="타원 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1520189" y="3098482"/>
-          <a:ext cx="483870" cy="263843"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110489</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -2218,7 +2224,7 @@
         <xdr:cNvPr id="48" name="타원 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2302,7 @@
         <xdr:cNvPr id="49" name="타원 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,6 +2508,68 @@
         <a:xfrm>
           <a:off x="1935480" y="2758440"/>
           <a:ext cx="5509260" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920240" y="3063240"/>
+          <a:ext cx="5570220" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2834,7 +2902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2850,780 +2918,780 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="75"/>
+    <col min="1" max="1" width="4" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.69921875" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="79" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="81"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="79"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="82">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="87"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="88">
+      <c r="A4" s="86">
         <v>2</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="91"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="89"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="82">
+      <c r="A5" s="80">
         <v>3</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="89"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="88">
+      <c r="A6" s="86">
         <v>4</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="85"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7" s="82">
+      <c r="A7" s="80">
         <v>5</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="85"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8" s="88">
+      <c r="A8" s="86">
         <v>6</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="91"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="89"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A9" s="82">
+      <c r="A9" s="80">
         <v>7</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="87"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="85"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A10" s="88">
+      <c r="A10" s="86">
         <v>8</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="87"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="85"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A11" s="82">
+      <c r="A11" s="80">
         <v>9</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="87"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="85"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A12" s="88">
+      <c r="A12" s="86">
         <v>10</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="87"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="85"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A13" s="82">
+      <c r="A13" s="80">
         <v>11</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="87"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="85"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A14" s="88">
+      <c r="A14" s="86">
         <v>12</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="87"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="85"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A15" s="82">
+      <c r="A15" s="80">
         <v>13</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="87"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="85"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16" s="88">
+      <c r="A16" s="86">
         <v>14</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="87"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="85"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="82">
+      <c r="A17" s="80">
         <v>15</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="85"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A18" s="88">
+      <c r="A18" s="86">
         <v>16</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="85"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A19" s="82">
+      <c r="A19" s="80">
         <v>17</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="85"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A20" s="82">
+      <c r="A20" s="80">
         <v>18</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="85"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21" s="88">
+      <c r="A21" s="86">
         <v>19</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="85"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="82">
+      <c r="A22" s="80">
         <v>20</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="87"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="85"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A23" s="82"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="87"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="85"/>
     </row>
     <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="100"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="98"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3636,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3672,7 +3740,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -3684,7 +3752,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -3698,7 +3766,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3711,7 +3779,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -3721,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="102"/>
+      <c r="S2" s="100"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -3731,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="103"/>
+      <c r="AA2" s="101"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4211,7 +4279,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4252,7 +4320,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4264,7 +4332,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4278,7 +4346,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4291,7 +4359,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4301,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="102"/>
+      <c r="S2" s="100"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4311,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="103"/>
+      <c r="AA2" s="101"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4320,60 +4388,60 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="67" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="67" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="67" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="67" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="67" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="67" t="s">
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="67" t="s">
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="72" t="s">
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="67" t="s">
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="73"/>
+      <c r="AF4" s="71"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34">
@@ -4548,13 +4616,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="37" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -4600,73 +4668,73 @@
       <c r="AF8" s="42"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34">
+      <c r="A9" s="109">
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="40" t="s">
+      <c r="B9" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="113"/>
+      <c r="L9" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="37" t="s">
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="40" t="s">
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="40" t="s">
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="40" t="s">
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="38" t="s">
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="42"/>
+      <c r="AF9" s="118"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
         <v>6</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -4676,7 +4744,7 @@
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -4687,7 +4755,7 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
-      <c r="T10" s="109">
+      <c r="T10" s="107">
         <v>30</v>
       </c>
       <c r="U10" s="41"/>
@@ -4716,13 +4784,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="37" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
@@ -4732,7 +4800,7 @@
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -4743,7 +4811,7 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="110">
+      <c r="T11" s="108">
         <v>1000</v>
       </c>
       <c r="U11" s="41"/>
@@ -4768,67 +4836,67 @@
       <c r="AF11" s="42"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34">
+      <c r="A12" s="109">
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="40" t="s">
+      <c r="B12" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="40" t="s">
+      <c r="K12" s="113"/>
+      <c r="L12" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="37" t="s">
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="40" t="s">
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="40" t="s">
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="40" t="s">
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="38" t="s">
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="40" t="s">
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AF12" s="42"/>
+      <c r="AF12" s="118"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34">
         <v>9</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -4850,7 +4918,7 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
@@ -5140,38 +5208,38 @@
       <c r="AF20" s="49"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5185,7 +5253,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5220,7 +5288,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -5232,7 +5300,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -5246,7 +5314,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5259,7 +5327,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -5269,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="102"/>
+      <c r="S2" s="100"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -5279,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="103"/>
+      <c r="AA2" s="101"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -5332,66 +5400,76 @@
       <c r="AF4" s="33"/>
     </row>
     <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44">
+      <c r="A5" s="119">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="37" t="s">
+      <c r="B5" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="47"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="123"/>
     </row>
     <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="37"/>
+      <c r="A6" s="44">
+        <v>2</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="51"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="37"/>
+      <c r="K6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
@@ -5453,7 +5531,7 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="58"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="40"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -5487,7 +5565,7 @@
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="58"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="40"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -5513,7 +5591,7 @@
     </row>
     <row r="10" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34"/>
-      <c r="B10" s="57"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -5521,7 +5599,7 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="40"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5547,7 +5625,7 @@
     </row>
     <row r="11" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34"/>
-      <c r="B11" s="57"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -5555,7 +5633,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="40"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5581,7 +5659,7 @@
     </row>
     <row r="12" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34"/>
-      <c r="B12" s="57"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
@@ -5615,7 +5693,7 @@
     </row>
     <row r="13" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34"/>
-      <c r="B13" s="57"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -5623,7 +5701,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="58"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="40"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5649,7 +5727,7 @@
     </row>
     <row r="14" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -5683,7 +5761,7 @@
     </row>
     <row r="15" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34"/>
-      <c r="B15" s="57"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
@@ -5717,7 +5795,7 @@
     </row>
     <row r="16" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34"/>
-      <c r="B16" s="57"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -5759,7 +5837,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="40"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -5793,7 +5871,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="40"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -6022,71 +6100,71 @@
       <c r="AF24" s="47"/>
     </row>
     <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="65"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="63"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6099,8 +6177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6135,7 +6213,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -6147,7 +6225,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -6161,7 +6239,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -6174,7 +6252,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -6184,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="102"/>
+      <c r="S2" s="100"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -6194,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="103"/>
+      <c r="AA2" s="101"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -6251,27 +6329,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="58"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
       <c r="P5" s="40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -6291,22 +6369,32 @@
       <c r="AF5" s="42"/>
     </row>
     <row r="6" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="34">
+        <v>2</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="40"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
+      <c r="P6" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
@@ -6325,22 +6413,32 @@
       <c r="AF6" s="42"/>
     </row>
     <row r="7" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="34">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="40"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
       <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="P7" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
@@ -6368,7 +6466,7 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="58"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="40"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -6937,71 +7035,71 @@
       <c r="AF24" s="47"/>
     </row>
     <row r="25" spans="1:32" s="43" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="65"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="63"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/report/基本設計書/基本設計書_I0005_作成画面.xlsx
+++ b/report/基本設計書/基本設計書_I0005_作成画面.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\基本設計書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="1"/>
+    <workbookView xWindow="8190" yWindow="0" windowWidth="16665" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -15,10 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -494,7 +499,7 @@
   </si>
   <si>
     <t>ファイルを添付</t>
-    <rPh sb="6" eb="8">
+    <rPh sb="0" eb="7">
       <t>ｲﾄﾞｳ</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -553,25 +558,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -600,14 +605,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1434,7 +1439,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1483,7 @@
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1630,7 @@
         <xdr:cNvPr id="27" name="타원 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1706,7 @@
         <xdr:cNvPr id="35" name="타원 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1839,7 @@
         <xdr:cNvPr id="37" name="타원 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1917,7 @@
         <xdr:cNvPr id="39" name="타원 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1995,7 @@
         <xdr:cNvPr id="40" name="타원 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2073,7 @@
         <xdr:cNvPr id="42" name="타원 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2151,7 @@
         <xdr:cNvPr id="45" name="타원 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2229,7 @@
         <xdr:cNvPr id="48" name="타원 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2307,7 @@
         <xdr:cNvPr id="49" name="타원 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2916,15 +2921,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="73"/>
+    <col min="2" max="2" width="12.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="74" t="s">
         <v>38</v>
       </c>
@@ -2964,7 +2969,7 @@
       <c r="AA2" s="77"/>
       <c r="AB2" s="79"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="80">
         <v>1</v>
       </c>
@@ -2996,7 +3001,7 @@
       <c r="AA3" s="84"/>
       <c r="AB3" s="85"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="86">
         <v>2</v>
       </c>
@@ -3028,7 +3033,7 @@
       <c r="AA4" s="82"/>
       <c r="AB4" s="89"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="80">
         <v>3</v>
       </c>
@@ -3060,7 +3065,7 @@
       <c r="AA5" s="82"/>
       <c r="AB5" s="89"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="86">
         <v>4</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="AA6" s="84"/>
       <c r="AB6" s="85"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="80">
         <v>5</v>
       </c>
@@ -3124,7 +3129,7 @@
       <c r="AA7" s="84"/>
       <c r="AB7" s="85"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="86">
         <v>6</v>
       </c>
@@ -3156,7 +3161,7 @@
       <c r="AA8" s="82"/>
       <c r="AB8" s="89"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="80">
         <v>7</v>
       </c>
@@ -3188,7 +3193,7 @@
       <c r="AA9" s="84"/>
       <c r="AB9" s="85"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="86">
         <v>8</v>
       </c>
@@ -3220,7 +3225,7 @@
       <c r="AA10" s="84"/>
       <c r="AB10" s="85"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="80">
         <v>9</v>
       </c>
@@ -3252,7 +3257,7 @@
       <c r="AA11" s="84"/>
       <c r="AB11" s="85"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="86">
         <v>10</v>
       </c>
@@ -3284,7 +3289,7 @@
       <c r="AA12" s="84"/>
       <c r="AB12" s="85"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="80">
         <v>11</v>
       </c>
@@ -3316,7 +3321,7 @@
       <c r="AA13" s="84"/>
       <c r="AB13" s="85"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="86">
         <v>12</v>
       </c>
@@ -3348,7 +3353,7 @@
       <c r="AA14" s="84"/>
       <c r="AB14" s="85"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="80">
         <v>13</v>
       </c>
@@ -3380,7 +3385,7 @@
       <c r="AA15" s="84"/>
       <c r="AB15" s="85"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="86">
         <v>14</v>
       </c>
@@ -3412,7 +3417,7 @@
       <c r="AA16" s="84"/>
       <c r="AB16" s="85"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="80">
         <v>15</v>
       </c>
@@ -3444,7 +3449,7 @@
       <c r="AA17" s="84"/>
       <c r="AB17" s="85"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="86">
         <v>16</v>
       </c>
@@ -3476,7 +3481,7 @@
       <c r="AA18" s="84"/>
       <c r="AB18" s="85"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="80">
         <v>17</v>
       </c>
@@ -3508,7 +3513,7 @@
       <c r="AA19" s="84"/>
       <c r="AB19" s="85"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="80">
         <v>18</v>
       </c>
@@ -3540,7 +3545,7 @@
       <c r="AA20" s="84"/>
       <c r="AB20" s="85"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="86">
         <v>19</v>
       </c>
@@ -3572,7 +3577,7 @@
       <c r="AA21" s="84"/>
       <c r="AB21" s="85"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="80">
         <v>20</v>
       </c>
@@ -3604,7 +3609,7 @@
       <c r="AA22" s="84"/>
       <c r="AB22" s="85"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="80"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91"/>
@@ -3634,7 +3639,7 @@
       <c r="AA23" s="84"/>
       <c r="AB23" s="85"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="93"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
@@ -3664,7 +3669,7 @@
       <c r="AA24" s="96"/>
       <c r="AB24" s="98"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="B25" s="99"/>
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
@@ -3708,13 +3713,13 @@
       <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3765,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3806,8 +3811,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:33">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -3841,7 +3846,7 @@
       <c r="AE4" s="21"/>
       <c r="AF4" s="22"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
         <v>17</v>
@@ -3877,7 +3882,7 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="25"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -3911,7 +3916,7 @@
       <c r="AE6" s="24"/>
       <c r="AF6" s="25"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3945,7 +3950,7 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="25"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -3979,7 +3984,7 @@
       <c r="AE8" s="24"/>
       <c r="AF8" s="25"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4013,7 +4018,7 @@
       <c r="AE9" s="24"/>
       <c r="AF9" s="25"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -4047,7 +4052,7 @@
       <c r="AE10" s="24"/>
       <c r="AF10" s="25"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -4081,7 +4086,7 @@
       <c r="AE11" s="24"/>
       <c r="AF11" s="25"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -4115,7 +4120,7 @@
       <c r="AE12" s="24"/>
       <c r="AF12" s="25"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -4149,7 +4154,7 @@
       <c r="AE13" s="24"/>
       <c r="AF13" s="25"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -4183,55 +4188,55 @@
       <c r="AE14" s="24"/>
       <c r="AF14" s="25"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="AG15" s="23"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="AG16" s="23"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="AG17" s="23"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="AG18" s="23"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33">
       <c r="A19" s="23"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="AG19" s="23"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33">
       <c r="A20" s="23"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="AG20" s="23"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="AG21" s="23"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="AG22" s="23"/>
     </row>
-    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" ht="19.5" thickBot="1">
       <c r="A23" s="28"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4282,19 +4287,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="3.59765625" style="43"/>
+    <col min="1" max="1" width="3.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="3.625" style="43"/>
     <col min="20" max="22" width="6" style="43" customWidth="1"/>
-    <col min="23" max="26" width="3.59765625" style="43"/>
+    <col min="23" max="26" width="3.625" style="43"/>
     <col min="27" max="27" width="4" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.59765625" style="43"/>
-    <col min="29" max="29" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.59765625" style="43"/>
+    <col min="28" max="28" width="3.625" style="43"/>
+    <col min="29" max="29" width="3.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4345,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -4386,8 +4391,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1">
       <c r="A4" s="67" t="s">
         <v>5</v>
       </c>
@@ -4443,7 +4448,7 @@
       </c>
       <c r="AF4" s="71"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -4499,7 +4504,7 @@
       </c>
       <c r="AF5" s="42"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -4555,7 +4560,7 @@
       </c>
       <c r="AF6" s="42"/>
     </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -4611,7 +4616,7 @@
       </c>
       <c r="AF7" s="42"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
       <c r="A8" s="34">
         <v>4</v>
       </c>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="AF8" s="42"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1">
       <c r="A9" s="109">
         <v>5</v>
       </c>
@@ -4723,7 +4728,7 @@
       </c>
       <c r="AF9" s="118"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="34">
         <v>6</v>
       </c>
@@ -4779,7 +4784,7 @@
       </c>
       <c r="AF10" s="42"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1">
       <c r="A11" s="34">
         <v>7</v>
       </c>
@@ -4835,7 +4840,7 @@
       </c>
       <c r="AF11" s="42"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="109">
         <v>8</v>
       </c>
@@ -4891,7 +4896,7 @@
       </c>
       <c r="AF12" s="118"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="34">
         <v>9</v>
       </c>
@@ -4947,7 +4952,7 @@
       </c>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1">
       <c r="A14" s="34">
         <v>10</v>
       </c>
@@ -5003,7 +5008,7 @@
       </c>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1">
       <c r="A15" s="44"/>
       <c r="B15" s="48"/>
       <c r="C15" s="45"/>
@@ -5037,7 +5042,7 @@
       <c r="AE15" s="40"/>
       <c r="AF15" s="49"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1">
       <c r="A16" s="44"/>
       <c r="B16" s="48"/>
       <c r="C16" s="45"/>
@@ -5071,7 +5076,7 @@
       <c r="AE16" s="40"/>
       <c r="AF16" s="42"/>
     </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1">
       <c r="A17" s="44"/>
       <c r="B17" s="48"/>
       <c r="C17" s="45"/>
@@ -5105,7 +5110,7 @@
       <c r="AE17" s="40"/>
       <c r="AF17" s="49"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1">
       <c r="A18" s="44"/>
       <c r="B18" s="48"/>
       <c r="C18" s="45"/>
@@ -5139,7 +5144,7 @@
       <c r="AE18" s="40"/>
       <c r="AF18" s="49"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1">
       <c r="A19" s="44"/>
       <c r="B19" s="48"/>
       <c r="C19" s="45"/>
@@ -5173,7 +5178,7 @@
       <c r="AE19" s="40"/>
       <c r="AF19" s="49"/>
     </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="44"/>
       <c r="B20" s="48"/>
       <c r="C20" s="45"/>
@@ -5207,7 +5212,7 @@
       <c r="AE20" s="37"/>
       <c r="AF20" s="49"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -5256,13 +5261,13 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5313,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -5354,8 +5359,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
@@ -5399,7 +5404,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="33"/>
     </row>
-    <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="119">
         <v>1</v>
       </c>
@@ -5443,7 +5448,7 @@
       <c r="AE5" s="113"/>
       <c r="AF5" s="123"/>
     </row>
-    <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="44">
         <v>2</v>
       </c>
@@ -5487,7 +5492,7 @@
       <c r="AE6" s="41"/>
       <c r="AF6" s="47"/>
     </row>
-    <row r="7" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="44"/>
       <c r="B7" s="54"/>
       <c r="C7" s="41"/>
@@ -5521,7 +5526,7 @@
       <c r="AE7" s="41"/>
       <c r="AF7" s="47"/>
     </row>
-    <row r="8" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="54"/>
       <c r="C8" s="38"/>
@@ -5555,7 +5560,7 @@
       <c r="AE8" s="38"/>
       <c r="AF8" s="42"/>
     </row>
-    <row r="9" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="54"/>
       <c r="C9" s="38"/>
@@ -5589,7 +5594,7 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="42"/>
     </row>
-    <row r="10" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="55"/>
       <c r="C10" s="38"/>
@@ -5623,7 +5628,7 @@
       <c r="AE10" s="38"/>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="55"/>
       <c r="C11" s="38"/>
@@ -5657,7 +5662,7 @@
       <c r="AE11" s="38"/>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="55"/>
       <c r="C12" s="41"/>
@@ -5691,7 +5696,7 @@
       <c r="AE12" s="41"/>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="55"/>
       <c r="C13" s="38"/>
@@ -5725,7 +5730,7 @@
       <c r="AE13" s="38"/>
       <c r="AF13" s="47"/>
     </row>
-    <row r="14" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="55"/>
       <c r="C14" s="41"/>
@@ -5759,7 +5764,7 @@
       <c r="AE14" s="41"/>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="55"/>
       <c r="C15" s="41"/>
@@ -5793,7 +5798,7 @@
       <c r="AE15" s="41"/>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="55"/>
       <c r="C16" s="41"/>
@@ -5827,7 +5832,7 @@
       <c r="AE16" s="41"/>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="40"/>
       <c r="C17" s="38"/>
@@ -5861,7 +5866,7 @@
       <c r="AE17" s="38"/>
       <c r="AF17" s="42"/>
     </row>
-    <row r="18" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" s="40"/>
       <c r="C18" s="38"/>
@@ -5895,7 +5900,7 @@
       <c r="AE18" s="38"/>
       <c r="AF18" s="42"/>
     </row>
-    <row r="19" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="44"/>
       <c r="B19" s="37"/>
       <c r="C19" s="41"/>
@@ -5929,7 +5934,7 @@
       <c r="AE19" s="41"/>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="44"/>
       <c r="B20" s="37"/>
       <c r="C20" s="41"/>
@@ -5963,7 +5968,7 @@
       <c r="AE20" s="41"/>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="44"/>
       <c r="B21" s="37"/>
       <c r="C21" s="41"/>
@@ -5997,7 +6002,7 @@
       <c r="AE21" s="41"/>
       <c r="AF21" s="47"/>
     </row>
-    <row r="22" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -6031,7 +6036,7 @@
       <c r="AE22" s="41"/>
       <c r="AF22" s="47"/>
     </row>
-    <row r="23" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="44"/>
       <c r="B23" s="37"/>
       <c r="C23" s="41"/>
@@ -6065,7 +6070,7 @@
       <c r="AE23" s="41"/>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="44"/>
       <c r="B24" s="37"/>
       <c r="C24" s="41"/>
@@ -6099,7 +6104,7 @@
       <c r="AE24" s="41"/>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
@@ -6133,7 +6138,7 @@
       <c r="AE25" s="59"/>
       <c r="AF25" s="63"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32">
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -6181,13 +6186,13 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6233,7 +6238,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -6279,8 +6284,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
@@ -6324,7 +6329,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="33"/>
     </row>
-    <row r="5" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -6368,7 +6373,7 @@
       <c r="AE5" s="38"/>
       <c r="AF5" s="42"/>
     </row>
-    <row r="6" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -6412,7 +6417,7 @@
       <c r="AE6" s="38"/>
       <c r="AF6" s="42"/>
     </row>
-    <row r="7" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -6456,7 +6461,7 @@
       <c r="AE7" s="38"/>
       <c r="AF7" s="42"/>
     </row>
-    <row r="8" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A8" s="34"/>
       <c r="B8" s="40"/>
       <c r="C8" s="38"/>
@@ -6490,7 +6495,7 @@
       <c r="AE8" s="38"/>
       <c r="AF8" s="42"/>
     </row>
-    <row r="9" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A9" s="44"/>
       <c r="B9" s="37"/>
       <c r="C9" s="41"/>
@@ -6524,7 +6529,7 @@
       <c r="AE9" s="41"/>
       <c r="AF9" s="47"/>
     </row>
-    <row r="10" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A10" s="44"/>
       <c r="B10" s="37"/>
       <c r="C10" s="41"/>
@@ -6558,7 +6563,7 @@
       <c r="AE10" s="41"/>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A11" s="44"/>
       <c r="B11" s="37"/>
       <c r="C11" s="41"/>
@@ -6592,7 +6597,7 @@
       <c r="AE11" s="41"/>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A12" s="44"/>
       <c r="B12" s="37"/>
       <c r="C12" s="41"/>
@@ -6626,7 +6631,7 @@
       <c r="AE12" s="41"/>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A13" s="44"/>
       <c r="B13" s="37"/>
       <c r="C13" s="41"/>
@@ -6660,7 +6665,7 @@
       <c r="AE13" s="41"/>
       <c r="AF13" s="47"/>
     </row>
-    <row r="14" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A14" s="44"/>
       <c r="B14" s="37"/>
       <c r="C14" s="41"/>
@@ -6694,7 +6699,7 @@
       <c r="AE14" s="41"/>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A15" s="44"/>
       <c r="B15" s="37"/>
       <c r="C15" s="41"/>
@@ -6728,7 +6733,7 @@
       <c r="AE15" s="41"/>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A16" s="44"/>
       <c r="B16" s="37"/>
       <c r="C16" s="41"/>
@@ -6762,7 +6767,7 @@
       <c r="AE16" s="41"/>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A17" s="44"/>
       <c r="B17" s="37"/>
       <c r="C17" s="41"/>
@@ -6796,7 +6801,7 @@
       <c r="AE17" s="41"/>
       <c r="AF17" s="47"/>
     </row>
-    <row r="18" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A18" s="44"/>
       <c r="B18" s="37"/>
       <c r="C18" s="41"/>
@@ -6830,7 +6835,7 @@
       <c r="AE18" s="41"/>
       <c r="AF18" s="47"/>
     </row>
-    <row r="19" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A19" s="44"/>
       <c r="B19" s="37"/>
       <c r="C19" s="41"/>
@@ -6864,7 +6869,7 @@
       <c r="AE19" s="41"/>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A20" s="44"/>
       <c r="B20" s="37"/>
       <c r="C20" s="41"/>
@@ -6898,7 +6903,7 @@
       <c r="AE20" s="41"/>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A21" s="44"/>
       <c r="B21" s="37"/>
       <c r="C21" s="41"/>
@@ -6932,7 +6937,7 @@
       <c r="AE21" s="41"/>
       <c r="AF21" s="47"/>
     </row>
-    <row r="22" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A22" s="44"/>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -6966,7 +6971,7 @@
       <c r="AE22" s="41"/>
       <c r="AF22" s="47"/>
     </row>
-    <row r="23" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A23" s="44"/>
       <c r="B23" s="37"/>
       <c r="C23" s="41"/>
@@ -7000,7 +7005,7 @@
       <c r="AE23" s="41"/>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A24" s="44"/>
       <c r="B24" s="37"/>
       <c r="C24" s="41"/>
@@ -7034,7 +7039,7 @@
       <c r="AE24" s="41"/>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
@@ -7068,7 +7073,7 @@
       <c r="AE25" s="59"/>
       <c r="AF25" s="63"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32">
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>

--- a/report/基本設計書/基本設計書_I0005_作成画面.xlsx
+++ b/report/基本設計書/基本設計書_I0005_作成画面.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\基本設計書\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="0" windowWidth="16665" windowHeight="10950" activeTab="1"/>
+    <workbookView xWindow="8196" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -19,14 +14,13 @@
     <sheet name="入力チェック一覧" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -376,20 +370,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掲示板_添付ファイル</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardFile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト_タイトル</t>
     <rPh sb="4" eb="6">
       <t>サイショ</t>
@@ -397,18 +377,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板_添付ボタン</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>textTitle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>btnFile</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,23 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル添付</t>
-    <rPh sb="0" eb="2">
-      <t>ｼｮｳｻｲ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ファイルを添付</t>
-    <rPh sb="0" eb="7">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>桁数チェック</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -553,12 +505,59 @@
     <t>textContents</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金哲湖</t>
+    <rPh sb="0" eb="1">
+      <t>キム</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テツコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付機能削除</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目定義</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,8 +629,19 @@
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,12 +660,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1028,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,9 +1297,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1335,75 +1336,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1439,7 +1404,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1448,7 @@
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1595,7 @@
         <xdr:cNvPr id="27" name="타원 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1671,7 @@
         <xdr:cNvPr id="35" name="타원 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1724,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1771,13 +1736,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>198119</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>40190</xdr:rowOff>
+      <xdr:rowOff>2090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1801,7 +1766,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1927860" y="1760219"/>
+          <a:off x="1927860" y="1722119"/>
           <a:ext cx="5562600" cy="2051871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1839,7 +1804,7 @@
         <xdr:cNvPr id="37" name="타원 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1882,7 @@
         <xdr:cNvPr id="39" name="타원 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1935,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1995,7 +1960,7 @@
         <xdr:cNvPr id="40" name="타원 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2038,7 @@
         <xdr:cNvPr id="42" name="타원 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2091,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2151,7 +2116,7 @@
         <xdr:cNvPr id="45" name="타원 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2194,7 @@
         <xdr:cNvPr id="48" name="타원 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2272,7 @@
         <xdr:cNvPr id="49" name="타원 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2325,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2907,7 +2872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2918,17 +2883,17 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="73"/>
+    <col min="2" max="2" width="12.69921875" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.69921875" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="1" spans="1:28" ht="18" thickBot="1"/>
     <row r="2" spans="1:28">
       <c r="A2" s="74" t="s">
         <v>38</v>
@@ -2973,18 +2938,26 @@
       <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
+      <c r="B3" s="104">
+        <v>44723</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="82"/>
       <c r="O3" s="82"/>
       <c r="P3" s="82"/>
@@ -3005,15 +2978,21 @@
       <c r="A4" s="86">
         <v>2</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="106" t="s">
+        <v>81</v>
+      </c>
       <c r="K4" s="82"/>
       <c r="L4" s="82"/>
       <c r="M4" s="82"/>
@@ -3031,21 +3010,27 @@
       <c r="Y4" s="82"/>
       <c r="Z4" s="82"/>
       <c r="AA4" s="82"/>
-      <c r="AB4" s="89"/>
+      <c r="AB4" s="88"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="80">
         <v>3</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="82"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="106" t="s">
+        <v>81</v>
+      </c>
       <c r="K5" s="82"/>
       <c r="L5" s="82"/>
       <c r="M5" s="82"/>
@@ -3063,20 +3048,20 @@
       <c r="Y5" s="82"/>
       <c r="Z5" s="82"/>
       <c r="AA5" s="82"/>
-      <c r="AB5" s="89"/>
+      <c r="AB5" s="88"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="86">
         <v>4</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="84"/>
-      <c r="I6" s="92"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
@@ -3159,20 +3144,20 @@
       <c r="Y8" s="82"/>
       <c r="Z8" s="82"/>
       <c r="AA8" s="82"/>
-      <c r="AB8" s="89"/>
+      <c r="AB8" s="88"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="80">
         <v>7</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="84"/>
-      <c r="I9" s="92"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
@@ -3197,14 +3182,14 @@
       <c r="A10" s="86">
         <v>8</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="84"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
@@ -3229,14 +3214,14 @@
       <c r="A11" s="80">
         <v>9</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="84"/>
-      <c r="I11" s="92"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
       <c r="L11" s="84"/>
@@ -3261,14 +3246,14 @@
       <c r="A12" s="86">
         <v>10</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="92"/>
+      <c r="I12" s="91"/>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
@@ -3293,14 +3278,14 @@
       <c r="A13" s="80">
         <v>11</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="84"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
@@ -3325,14 +3310,14 @@
       <c r="A14" s="86">
         <v>12</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="84"/>
-      <c r="I14" s="92"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="84"/>
@@ -3357,14 +3342,14 @@
       <c r="A15" s="80">
         <v>13</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="84"/>
-      <c r="I15" s="92"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
       <c r="L15" s="84"/>
@@ -3389,14 +3374,14 @@
       <c r="A16" s="86">
         <v>14</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="84"/>
-      <c r="I16" s="92"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
@@ -3421,14 +3406,14 @@
       <c r="A17" s="80">
         <v>15</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="84"/>
-      <c r="I17" s="92"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
@@ -3453,14 +3438,14 @@
       <c r="A18" s="86">
         <v>16</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="84"/>
-      <c r="I18" s="92"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
@@ -3485,14 +3470,14 @@
       <c r="A19" s="80">
         <v>17</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="84"/>
-      <c r="I19" s="92"/>
+      <c r="I19" s="91"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
@@ -3517,14 +3502,14 @@
       <c r="A20" s="80">
         <v>18</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="84"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -3549,14 +3534,14 @@
       <c r="A21" s="86">
         <v>19</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="84"/>
-      <c r="I21" s="92"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
       <c r="L21" s="84"/>
@@ -3581,14 +3566,14 @@
       <c r="A22" s="80">
         <v>20</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="84"/>
-      <c r="I22" s="92"/>
+      <c r="I22" s="91"/>
       <c r="J22" s="84"/>
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
@@ -3611,14 +3596,14 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="80"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="84"/>
-      <c r="I23" s="92"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
       <c r="L23" s="84"/>
@@ -3639,64 +3624,64 @@
       <c r="AA23" s="84"/>
       <c r="AB23" s="85"/>
     </row>
-    <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="98"/>
+    <row r="24" spans="1:28" ht="18" thickBot="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="97"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3709,14 +3694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.75" style="11"/>
+    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -3745,7 +3730,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -3757,7 +3742,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -3765,13 +3750,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="19.5" thickBot="1">
+    <row r="2" spans="1:33" ht="18" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3784,7 +3769,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -3794,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="100"/>
+      <c r="S2" s="99"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -3804,14 +3789,14 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="101"/>
+      <c r="AA2" s="100"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:33" ht="18" thickBot="1"/>
     <row r="4" spans="1:33">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
@@ -4236,7 +4221,7 @@
       <c r="C22" s="24"/>
       <c r="AG22" s="23"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" thickBot="1">
+    <row r="23" spans="1:33" ht="18" thickBot="1">
       <c r="A23" s="28"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4281,22 +4266,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="3.625" style="43"/>
+    <col min="1" max="1" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="3.59765625" style="43"/>
     <col min="20" max="22" width="6" style="43" customWidth="1"/>
-    <col min="23" max="26" width="3.625" style="43"/>
+    <col min="23" max="26" width="3.59765625" style="43"/>
     <col min="27" max="27" width="4" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.625" style="43"/>
-    <col min="29" max="29" width="3.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.625" style="43"/>
+    <col min="28" max="28" width="3.59765625" style="43"/>
+    <col min="29" max="29" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.59765625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1">
@@ -4325,7 +4310,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4337,7 +4322,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4351,7 +4336,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4364,7 +4349,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4374,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="100"/>
+      <c r="S2" s="99"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4384,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="101"/>
+      <c r="AA2" s="100"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4621,13 +4606,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -4673,73 +4658,73 @@
       <c r="AF8" s="42"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A9" s="109">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="113"/>
-      <c r="L9" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="115" t="s">
+      <c r="K9" s="41"/>
+      <c r="L9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="115" t="s">
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="102">
+        <v>30</v>
+      </c>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="116" t="s">
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF9" s="118"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="42"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="34">
         <v>6</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="37" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -4749,7 +4734,7 @@
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -4760,8 +4745,8 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
-      <c r="T10" s="107">
-        <v>30</v>
+      <c r="T10" s="103">
+        <v>1000</v>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
@@ -4780,7 +4765,7 @@
       </c>
       <c r="AD10" s="38"/>
       <c r="AE10" s="40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AF10" s="42"/>
     </row>
@@ -4789,13 +4774,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="37" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
@@ -4805,24 +4790,24 @@
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="40" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="37" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="108">
-        <v>1000</v>
+      <c r="T11" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="U11" s="41"/>
       <c r="V11" s="41"/>
-      <c r="W11" s="40" t="s">
-        <v>26</v>
+      <c r="W11" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4830,183 +4815,139 @@
       <c r="AA11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="38" t="s">
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AD11" s="38"/>
+      <c r="AD11" s="41"/>
       <c r="AE11" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF11" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="AF11" s="49"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A12" s="109">
+      <c r="A12" s="34">
         <v>8</v>
       </c>
-      <c r="B12" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="113"/>
-      <c r="L12" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="112" t="s">
+      <c r="B12" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="115" t="s">
+      <c r="K12" s="41"/>
+      <c r="L12" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="115" t="s">
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="115" t="s">
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="116" t="s">
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="115" t="s">
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AF12" s="118"/>
+      <c r="AF12" s="47"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A13" s="34">
-        <v>9</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>62</v>
-      </c>
+      <c r="A13" s="44"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="F13" s="37"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="40" t="s">
-        <v>52</v>
-      </c>
+      <c r="J13" s="40"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="40" t="s">
-        <v>45</v>
-      </c>
+      <c r="L13" s="40"/>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
-      <c r="P13" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="P13" s="37"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
-      <c r="T13" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="T13" s="37"/>
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
-      <c r="W13" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="W13" s="37"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="37"/>
       <c r="AB13" s="46"/>
-      <c r="AC13" s="41" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC13" s="41"/>
       <c r="AD13" s="41"/>
-      <c r="AE13" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE13" s="40"/>
       <c r="AF13" s="49"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A14" s="34">
-        <v>10</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>29</v>
-      </c>
+      <c r="A14" s="44"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
-      <c r="F14" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="F14" s="37"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="37" t="s">
-        <v>28</v>
-      </c>
+      <c r="L14" s="37"/>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
-      <c r="P14" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="P14" s="37"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
-      <c r="T14" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="T14" s="40"/>
       <c r="U14" s="41"/>
       <c r="V14" s="41"/>
-      <c r="W14" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="W14" s="40"/>
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
-      <c r="AA14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF14" s="47"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="42"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1">
       <c r="A15" s="44"/>
@@ -5054,7 +4995,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
@@ -5062,19 +5003,19 @@
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
-      <c r="T16" s="40"/>
+      <c r="T16" s="37"/>
       <c r="U16" s="41"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="40"/>
+      <c r="W16" s="37"/>
       <c r="X16" s="41"/>
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
       <c r="AE16" s="40"/>
-      <c r="AF16" s="42"/>
+      <c r="AF16" s="49"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1">
       <c r="A17" s="44"/>
@@ -5110,7 +5051,7 @@
       <c r="AE17" s="40"/>
       <c r="AF17" s="49"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="44"/>
       <c r="B18" s="48"/>
       <c r="C18" s="45"/>
@@ -5120,9 +5061,9 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="40"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -5141,110 +5082,42 @@
       <c r="AB18" s="46"/>
       <c r="AC18" s="41"/>
       <c r="AD18" s="41"/>
-      <c r="AE18" s="40"/>
+      <c r="AE18" s="37"/>
       <c r="AF18" s="49"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="49"/>
-    </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="49"/>
-    </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5255,16 +5128,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.75" style="11"/>
+    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -5293,7 +5166,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -5305,7 +5178,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -5313,13 +5186,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1">
+    <row r="2" spans="1:32" ht="18" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5332,7 +5205,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -5342,7 +5215,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="100"/>
+      <c r="S2" s="99"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -5352,14 +5225,14 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="101"/>
+      <c r="AA2" s="100"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:32" ht="18" thickBot="1"/>
     <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
@@ -5405,76 +5278,66 @@
       <c r="AF4" s="33"/>
     </row>
     <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="119">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="123"/>
+      <c r="B5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="47"/>
     </row>
     <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="44">
-        <v>2</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>63</v>
-      </c>
+      <c r="A6" s="44"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="37" t="s">
-        <v>72</v>
-      </c>
+      <c r="F6" s="37"/>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="51"/>
-      <c r="K6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="37" t="s">
-        <v>82</v>
-      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
@@ -5493,38 +5356,38 @@
       <c r="AF6" s="47"/>
     </row>
     <row r="7" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="44"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="54"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
       <c r="P7" s="37"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="47"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="42"/>
     </row>
     <row r="8" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="34"/>
@@ -5562,7 +5425,7 @@
     </row>
     <row r="9" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -5592,7 +5455,7 @@
       <c r="AC9" s="38"/>
       <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
-      <c r="AF9" s="42"/>
+      <c r="AF9" s="47"/>
     </row>
     <row r="10" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="34"/>
@@ -5600,7 +5463,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -5610,7 +5473,7 @@
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="37"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
@@ -5631,103 +5494,103 @@
     <row r="11" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="55"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="56"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="40"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
       <c r="AF11" s="47"/>
     </row>
     <row r="12" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="51"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
       <c r="AF12" s="47"/>
     </row>
     <row r="13" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="55"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="56"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="35"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
       <c r="AF13" s="47"/>
     </row>
     <row r="14" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
@@ -5800,37 +5663,37 @@
     </row>
     <row r="16" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="34"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="51"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="47"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="42"/>
     </row>
     <row r="17" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="34"/>
@@ -5867,38 +5730,38 @@
       <c r="AF17" s="42"/>
     </row>
     <row r="18" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="47"/>
     </row>
     <row r="19" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="44"/>
@@ -6070,106 +5933,72 @@
       <c r="AE23" s="41"/>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="47"/>
-    </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="63"/>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
+    <row r="24" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="63"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6183,13 +6012,13 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.75" style="11"/>
+    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -6218,7 +6047,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -6230,7 +6059,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -6238,13 +6067,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1">
+    <row r="2" spans="1:32" ht="18" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -6257,7 +6086,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -6267,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="100"/>
+      <c r="S2" s="99"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -6277,14 +6106,14 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="101"/>
+      <c r="AA2" s="100"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:32" ht="18" thickBot="1"/>
     <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
@@ -6334,27 +6163,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="56"/>
       <c r="K5" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
       <c r="P5" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -6378,27 +6207,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
       <c r="F6" s="35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="56"/>
       <c r="K6" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="39"/>
       <c r="P6" s="40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
@@ -6422,27 +6251,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="56"/>
       <c r="K7" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
       <c r="O7" s="39"/>
       <c r="P7" s="40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
@@ -7039,7 +6868,7 @@
       <c r="AE24" s="41"/>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" thickBot="1">
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.6" thickBot="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>

--- a/report/基本設計書/基本設計書_I0005_作成画面.xlsx
+++ b/report/基本設計書/基本設計書_I0005_作成画面.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\基本設計書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8196" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="3"/>
+    <workbookView xWindow="10530" yWindow="0" windowWidth="16665" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -271,10 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社名ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,14 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板_タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardTitle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>btnCreate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,25 +363,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>テキスト_タイトル</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>textTitle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -399,16 +374,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録後、メインに移動</t>
-    <rPh sb="0" eb="2">
-      <t>ｼｮｳｻｲ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>必須チェック</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -423,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No6~7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録ボタンを押下</t>
     <rPh sb="6" eb="8">
       <t>オウカ</t>
@@ -453,18 +414,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IE0002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>桁数チェック</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>No6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30桁以下なるかチェック</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,20 +428,6 @@
   <si>
     <t>1000桁以下なるかチェック</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掲示板_内容</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト_内容</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BOA_TBLに内容を登録、I0003に移動する。</t>
@@ -498,14 +437,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>boardContents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>textContents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -550,6 +481,177 @@
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ名ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagemeiRaberu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目修正</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録処理</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｼｮﾘ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>ﾌﾄｼﾄﾗｸﾏ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル_タイトル</t>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容_タイトル</t>
+    <rPh sb="2" eb="4">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textContents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textContentsTittle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textTitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textTitleTittle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No5,7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,7 +763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1023,6 +1125,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1032,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,15 +1462,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1294,12 +1471,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1336,39 +1507,105 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1388,40 +1625,33 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>122249</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>204768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="6852"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="880109" y="1148715"/>
-          <a:ext cx="7471740" cy="3476625"/>
+          <a:off x="781051" y="1209675"/>
+          <a:ext cx="6915150" cy="3776643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,16 +1662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>103524</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88668</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1456,7 +1686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="1270635"/>
+          <a:off x="895350" y="1537335"/>
           <a:ext cx="236874" cy="265833"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1508,87 +1738,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128289</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1722120" y="1224915"/>
-          <a:ext cx="861060" cy="268605"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>board</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156864</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1603,7 +1762,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2684145" y="1303020"/>
+          <a:off x="1550670" y="1264920"/>
           <a:ext cx="234969" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1656,148 +1815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>199072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="타원 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3638549" y="4386262"/>
-          <a:ext cx="485775" cy="280988"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2090</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="그림 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1927860" y="1722119"/>
-          <a:ext cx="5562600" cy="2051871"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>140969</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>218122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1812,8 +1838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1512569" y="1559242"/>
-          <a:ext cx="483870" cy="263843"/>
+          <a:off x="3684269" y="1646872"/>
+          <a:ext cx="287656" cy="298133"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1866,16 +1892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>87629</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49529</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22859</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1890,8 +1916,320 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3928109" y="1566862"/>
-          <a:ext cx="483870" cy="263843"/>
+          <a:off x="1430654" y="2414587"/>
+          <a:ext cx="264796" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36194</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>98107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="타원 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417319" y="2022157"/>
+          <a:ext cx="287656" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="타원 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072889" y="4003357"/>
+          <a:ext cx="299086" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139064</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="타원 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3453764" y="4668202"/>
+          <a:ext cx="251461" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182879</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6812279" y="2005012"/>
+          <a:ext cx="264796" cy="280988"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1944,20 +2282,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179069</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>192404</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>12382</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="타원 39">
+        <xdr:cNvPr id="11" name="타원 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
@@ -1968,8 +2306,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1550669" y="2016442"/>
-          <a:ext cx="483870" cy="263843"/>
+          <a:off x="6821804" y="2319337"/>
+          <a:ext cx="264796" cy="280988"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2013,568 +2351,8 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>110489</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>45719</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="타원 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4225289" y="2168842"/>
-          <a:ext cx="483870" cy="263843"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>58102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91439</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="타원 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3996689" y="2725102"/>
-          <a:ext cx="483870" cy="263843"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>9</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>110489</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>73342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45719</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="타원 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4773929" y="3182302"/>
-          <a:ext cx="483870" cy="263843"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>72389</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20002</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="타원 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3364229" y="3570922"/>
-          <a:ext cx="483870" cy="263843"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
             <a:t>7</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3444240" y="1813560"/>
-          <a:ext cx="365760" cy="1592580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="직사각형 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3870960" y="2651760"/>
-          <a:ext cx="1744980" cy="106680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="직사각형 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1935480" y="2758440"/>
-          <a:ext cx="5509260" cy="281940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1920240" y="3063240"/>
-          <a:ext cx="5570220" cy="434340"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2872,7 +2650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2882,38 +2660,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="73"/>
+    <col min="2" max="2" width="12.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1"/>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
       <c r="A2" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="C2" s="76" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
       <c r="F2" s="78"/>
       <c r="G2" s="76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="77"/>
       <c r="I2" s="78"/>
       <c r="J2" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
@@ -2938,750 +2716,750 @@
       <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="98">
         <v>44723</v>
       </c>
-      <c r="C3" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
+      <c r="C3" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="86">
-        <v>2</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="108" t="s">
-        <v>82</v>
+      <c r="A4" s="118"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="106"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="108" t="s">
+      <c r="F4" s="107"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="110"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="117"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="116"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="80">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119">
+        <v>44731</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="82"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="118"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="110"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="117"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="88"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="80">
-        <v>3</v>
-      </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="108" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="88"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="86">
-        <v>4</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="85"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="80">
-        <v>5</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="85"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="86">
-        <v>6</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="88"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="116"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="80">
-        <v>7</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="85"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="82"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="86">
-        <v>8</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="85"/>
+      <c r="A10" s="83">
+        <v>4</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="80">
-        <v>9</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="85"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="82"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="86">
-        <v>10</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="85"/>
+      <c r="A12" s="83">
+        <v>6</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="82"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="80">
-        <v>11</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="85"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="82"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="86">
-        <v>12</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="85"/>
+      <c r="A14" s="83">
+        <v>8</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="82"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="80">
-        <v>13</v>
-      </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="85"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="82"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="86">
-        <v>14</v>
-      </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="85"/>
+      <c r="A16" s="83">
+        <v>10</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="82"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="80">
-        <v>15</v>
-      </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="85"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="82"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="86">
-        <v>16</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="85"/>
+      <c r="A18" s="83">
+        <v>12</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="82"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="80">
-        <v>17</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="85"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="82"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="80">
-        <v>18</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="85"/>
+      <c r="A20" s="83">
+        <v>14</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="82"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="86">
-        <v>19</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="85"/>
+      <c r="A21" s="80">
+        <v>15</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="82"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="80">
-        <v>20</v>
-      </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="85"/>
+      <c r="A22" s="83">
+        <v>16</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="82"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="80"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
-    </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="97"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="82"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="92"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3694,14 +3472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -3730,7 +3508,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -3742,7 +3520,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -3750,13 +3528,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="18" thickBot="1">
+    <row r="2" spans="1:33" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3769,7 +3547,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -3779,7 +3557,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="127" t="s">
+        <v>87</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -3789,14 +3569,16 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="126" t="s">
+        <v>78</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:33" ht="18" thickBot="1"/>
+    <row r="3" spans="1:33" ht="19.5" thickBot="1"/>
     <row r="4" spans="1:33">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
@@ -4221,7 +4003,7 @@
       <c r="C22" s="24"/>
       <c r="AG22" s="23"/>
     </row>
-    <row r="23" spans="1:33" ht="18" thickBot="1">
+    <row r="23" spans="1:33" ht="19.5" thickBot="1">
       <c r="A23" s="28"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4269,19 +4051,19 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="3.59765625" style="43"/>
+    <col min="1" max="1" width="3.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="3.625" style="43"/>
     <col min="20" max="22" width="6" style="43" customWidth="1"/>
-    <col min="23" max="26" width="3.59765625" style="43"/>
+    <col min="23" max="26" width="3.625" style="43"/>
     <col min="27" max="27" width="4" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.59765625" style="43"/>
-    <col min="29" max="29" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.59765625" style="43"/>
+    <col min="28" max="28" width="3.625" style="43"/>
+    <col min="29" max="29" width="3.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1">
@@ -4310,7 +4092,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4322,7 +4104,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4336,7 +4118,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4349,7 +4131,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4359,7 +4141,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="127" t="s">
+        <v>87</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4369,7 +4153,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="126" t="s">
+        <v>78</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4438,13 +4224,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -4494,13 +4280,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -4510,38 +4296,38 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
       <c r="O6" s="38"/>
       <c r="P6" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
       <c r="T6" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
       <c r="W6" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="39"/>
       <c r="AC6" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="38"/>
       <c r="AE6" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF6" s="42"/>
     </row>
@@ -4550,46 +4336,46 @@
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="46"/>
+      <c r="F7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="41"/>
+        <v>72</v>
+      </c>
+      <c r="K7" s="38"/>
       <c r="L7" s="37" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
       <c r="T7" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+        <v>72</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
       <c r="W7" s="40" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="X7" s="38"/>
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="40" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="AB7" s="39"/>
       <c r="AC7" s="38" t="s">
@@ -4597,7 +4383,7 @@
       </c>
       <c r="AD7" s="38"/>
       <c r="AE7" s="40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AF7" s="42"/>
     </row>
@@ -4606,19 +4392,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="37" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="46"/>
       <c r="J8" s="40" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="37" t="s">
@@ -4628,32 +4414,32 @@
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="37" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
-      <c r="T8" s="40" t="s">
-        <v>26</v>
+      <c r="T8" s="96" t="s">
+        <v>94</v>
       </c>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
       <c r="W8" s="40" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="40" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="AB8" s="39"/>
       <c r="AC8" s="38" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="AD8" s="38"/>
       <c r="AE8" s="40" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="42"/>
     </row>
@@ -4662,23 +4448,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="37" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="46"/>
       <c r="J9" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
@@ -4689,7 +4475,7 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="102">
+      <c r="T9" s="96">
         <v>30</v>
       </c>
       <c r="U9" s="41"/>
@@ -4718,54 +4504,54 @@
         <v>6</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="37" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="46"/>
       <c r="J10" s="40" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K10" s="41"/>
-      <c r="L10" s="40" t="s">
-        <v>56</v>
+      <c r="L10" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="37" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
-      <c r="T10" s="103">
-        <v>1000</v>
+      <c r="T10" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
-      <c r="W10" s="40" t="s">
-        <v>26</v>
+      <c r="W10" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD10" s="38"/>
+        <v>95</v>
+      </c>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD10" s="41"/>
       <c r="AE10" s="40" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF10" s="42"/>
     </row>
@@ -4774,40 +4560,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="37" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="46"/>
       <c r="J11" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="40" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="37" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="37" t="s">
-        <v>26</v>
+      <c r="T11" s="97">
+        <v>1000</v>
       </c>
       <c r="U11" s="41"/>
       <c r="V11" s="41"/>
-      <c r="W11" s="37" t="s">
-        <v>32</v>
+      <c r="W11" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4815,44 +4601,44 @@
       <c r="AA11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="41" t="s">
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AD11" s="41"/>
+      <c r="AD11" s="38"/>
       <c r="AE11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AF11" s="49"/>
+      <c r="AF11" s="42"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="34">
         <v>8</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="37" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="46"/>
       <c r="J12" s="40" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="K12" s="41"/>
-      <c r="L12" s="37" t="s">
-        <v>28</v>
+      <c r="L12" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="37" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
@@ -4863,12 +4649,12 @@
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
       <c r="W12" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="AB12" s="46"/>
@@ -4876,43 +4662,65 @@
         <v>26</v>
       </c>
       <c r="AD12" s="41"/>
-      <c r="AE12" s="37" t="s">
+      <c r="AE12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AF12" s="47"/>
+      <c r="AF12" s="42"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="34">
+        <v>9</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="40"/>
+      <c r="L13" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
-      <c r="P13" s="37"/>
+      <c r="P13" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
-      <c r="T13" s="37"/>
+      <c r="T13" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
-      <c r="W13" s="37"/>
+      <c r="W13" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
-      <c r="AA13" s="37"/>
+      <c r="AA13" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="AB13" s="46"/>
-      <c r="AC13" s="41"/>
+      <c r="AC13" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="AD13" s="41"/>
-      <c r="AE13" s="40"/>
+      <c r="AE13" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="AF13" s="49"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1">
@@ -4927,7 +4735,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
@@ -4935,17 +4743,17 @@
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
-      <c r="T14" s="40"/>
+      <c r="T14" s="37"/>
       <c r="U14" s="41"/>
       <c r="V14" s="41"/>
-      <c r="W14" s="40"/>
+      <c r="W14" s="37"/>
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
       <c r="AE14" s="40"/>
       <c r="AF14" s="42"/>
     </row>
@@ -5130,14 +4938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -5166,7 +4974,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -5178,7 +4986,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -5186,13 +4994,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5205,7 +5013,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -5215,7 +5023,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="127" t="s">
+        <v>85</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -5225,14 +5035,16 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="126" t="s">
+        <v>86</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1"/>
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
     <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
@@ -5282,27 +5094,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="51"/>
       <c r="K5" s="40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" s="53"/>
       <c r="P5" s="37" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
@@ -6012,13 +5824,13 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -6047,7 +5859,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -6059,7 +5871,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -6067,13 +5879,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -6086,7 +5898,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -6096,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="94"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -6106,14 +5918,14 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="95"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1"/>
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
     <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
@@ -6163,27 +5975,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="35" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="56"/>
       <c r="K5" s="37" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
       <c r="P5" s="40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -6207,27 +6019,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
       <c r="F6" s="35" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="56"/>
       <c r="K6" s="37" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="39"/>
       <c r="P6" s="40" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
@@ -6251,27 +6063,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="35" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="56"/>
       <c r="K7" s="37" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
       <c r="O7" s="39"/>
       <c r="P7" s="40" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
@@ -6868,7 +6680,7 @@
       <c r="AE24" s="41"/>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.6" thickBot="1">
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
